--- a/Data/全部数据/原始excel/平静/孙-调节2hz_20160620_104432_ASIC_EEG.xlsx
+++ b/Data/全部数据/原始excel/平静/孙-调节2hz_20160620_104432_ASIC_EEG.xlsx
@@ -425,7 +425,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -438,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W890"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:W890"/>
+    <sheetView tabSelected="1" topLeftCell="A745" workbookViewId="0">
+      <selection activeCell="L761" sqref="L761"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
